--- a/src/loader_package/xlsx/pre_load.xlsx
+++ b/src/loader_package/xlsx/pre_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\ING3\Informatique\Projet\java_project_desautel_pellen_perold\src\loader_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\ING3\Informatique\Projet\java_project_desautel_pellen_perold\src\loader_package\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6551BF42-6C82-449F-A7F5-6CEA657D79EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881BDD1A-F509-4F0C-B5FF-DA6F68968DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>password1</t>
   </si>
   <si>
-    <t>loser</t>
-  </si>
-  <si>
     <t>cœur</t>
   </si>
   <si>
@@ -106,13 +103,16 @@
     <t>Oupas</t>
   </si>
   <si>
-    <t>tg</t>
-  </si>
-  <si>
     <t>jesaispas</t>
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>password3</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -532,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -546,13 +546,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -594,7 +594,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -641,16 +641,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756543B5-6C61-4637-A564-64168E2FF4C2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -745,13 +745,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883CD6C9-C7F8-417C-AF0A-CD6526D333C3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
